--- a/LX_API_TEST/Data/Interface_info.xlsx
+++ b/LX_API_TEST/Data/Interface_info.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="interface" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -253,7 +253,7 @@
     <t>获取全局Token值</t>
   </si>
   <si>
-    <t>get</t>
+    <t>GET</t>
   </si>
   <si>
     <t>no</t>
@@ -280,7 +280,7 @@
     <t>用户登录</t>
   </si>
   <si>
-    <t>post</t>
+    <t>POST</t>
   </si>
   <si>
     <t>/api/Login</t>
@@ -452,6 +452,204 @@
   </si>
   <si>
     <t>{"force":false,"gameId":578,"maxBack":9.0,"orderlist":[{"amount":10,"goal":"1349","id":1349,"name":"7","odds":43.61,"odds1":-1.0,"parentName":"特码","sId":457,"timestamp":1594448747}],"periodID":"43733064","selectBack":0.0}</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>活动相关</t>
+  </si>
+  <si>
+    <t>获取活动列表</t>
+  </si>
+  <si>
+    <t>/api/GetActivityList</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>查询是否有活动</t>
+  </si>
+  <si>
+    <t>/api/HasActivity</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>查询用户已参加活动</t>
+  </si>
+  <si>
+    <t>/api/GetUserJoinActivityInfo</t>
+  </si>
+  <si>
+    <t>{"EndTime":"2020-07-14 02:00:00","PageSize":20,"StartTime":"2020-07-13 02:00:00","PageIndex":1}</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>后台相关</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>/Login</t>
+  </si>
+  <si>
+    <t>{"password":"8196658ecaeceb870d0ad3053dd579d2","googlecode":"","username":"qazwsx2","validateCode":"","accountfid":""}</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>/Account/AddAccount</t>
+  </si>
+  <si>
+    <t>{"parentId":535658,"isAgent":true,"isBet":true,"isCommission":false,"agentType":2,"isVisitor":false,"hasContact":false,"accountName":"替换参数","nickName":"tt","password":"替换参数","status":1,"odds":-1,"hasUserContact":false,"FTransferAccountsType":0,"UseParentOdds":false,"IsTransferAccounts":0,"jsonlist":[],"homeView":"haocai","agentAddBankCardConditions":"","memberAddBankCardConditions":"","UserKickbacks":[]}</t>
+  </si>
+  <si>
+    <t>A022</t>
+  </si>
+  <si>
+    <t>参加活动</t>
+  </si>
+  <si>
+    <t>/api/AddActity</t>
+  </si>
+  <si>
+    <t>{"ActityID":4330}</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>添加活动</t>
+  </si>
+  <si>
+    <t>FILE</t>
+  </si>
+  <si>
+    <t>/ActivesManage/AddActity</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>领取活动奖励</t>
+  </si>
+  <si>
+    <t>/api/AuditActity</t>
+  </si>
+  <si>
+    <t>{"ActityID":320298}</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>充值提现</t>
+  </si>
+  <si>
+    <t>充值导航</t>
+  </si>
+  <si>
+    <t>/api/PaymentIndex</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>获取可用支付通道</t>
+  </si>
+  <si>
+    <t>/api/GetPaymentProvider</t>
+  </si>
+  <si>
+    <t>{"id":9,"isonline":-1}</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>获取用户常用支付通道</t>
+  </si>
+  <si>
+    <t>/api/GetRecentlyUsedPayment</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>检查通道是否首次充值</t>
+  </si>
+  <si>
+    <t>/api/CheckIsFirstRecharge</t>
+  </si>
+  <si>
+    <t>{"id":2,"isonline":1,"_":1596470495046}</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>获取支付商优惠设置</t>
+  </si>
+  <si>
+    <t>/api/GetPreferenceNewConfig</t>
+  </si>
+  <si>
+    <t>{"Type":2,"CashConfigId":1112,"_":1596475297051}</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>检测充值金额</t>
+  </si>
+  <si>
+    <t>/api/CheckAmount</t>
+  </si>
+  <si>
+    <t>{"Amount":-1}</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>线上充值</t>
+  </si>
+  <si>
+    <t>/Home/GoPay</t>
+  </si>
+  <si>
+    <t>{"LoginSessionID":"5e6ebd2c856a5bf41a653758c334e48f","paymentId":1188,"amount":100,"code":"","FIsCode":false,"wayType":1,"choicePre":true}</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>充值记录</t>
+  </si>
+  <si>
+    <t>/api/GetChargeRecord</t>
+  </si>
+  <si>
+    <t>{"EndTime":"2020-08-08 02:00:00","OrderNum":"","PageSize":20,"StartTime":"2020-08-07 02:00:00","IsContainSub":false,"PageIndex":1,"QueryType":0,"FStatus":3,"AccountName":""}</t>
+  </si>
+  <si>
+    <t>A033</t>
+  </si>
+  <si>
+    <t>公司充值</t>
+  </si>
+  <si>
+    <t>/api/UpApply</t>
+  </si>
+  <si>
+    <t>{"orderNumber":"45308102348429170002","amount":200,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
   </si>
 </sst>
 </file>
@@ -460,9 +658,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -486,8 +684,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,7 +701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,47 +715,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,18 +737,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,9 +754,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -622,8 +805,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -656,6 +854,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -668,7 +914,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,13 +968,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,145 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,26 +1063,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -896,6 +1074,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,6 +1104,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -926,6 +1133,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,24 +1160,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -970,10 +1168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,16 +1180,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,115 +1198,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,10 +1326,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1480,23 +1680,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="30" style="2" customWidth="1"/>
     <col min="8" max="8" width="61" style="2" customWidth="1"/>
-    <col min="9" max="9" width="114.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="95.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1717,7 +1917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" ht="82.5" spans="1:9">
+    <row r="9" ht="33" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1914,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:9">
+    <row r="16" ht="33" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1939,11 +2139,11 @@
       <c r="H16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" ht="33" spans="1:9">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -1968,25 +2168,500 @@
       <c r="H17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" ht="19" customHeight="1" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="33" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="47" customHeight="1" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" ht="33" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" ht="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" ht="66" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
-      <formula1>"HC,AG"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>"GET,POST"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D2:D3">
-      <formula1>"post,get"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"HC,AG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34">
+      <formula1>"POST,GET"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E2:E3">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LX_API_TEST/Data/Interface_info.xlsx
+++ b/LX_API_TEST/Data/Interface_info.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -358,6 +358,15 @@
     <t>A009</t>
   </si>
   <si>
+    <t>获取用户基础数据</t>
+  </si>
+  <si>
+    <t>/api/GetAccount</t>
+  </si>
+  <si>
+    <t>A010</t>
+  </si>
+  <si>
     <t>游戏相关</t>
   </si>
   <si>
@@ -370,7 +379,7 @@
     <t>{"IsGone":true}</t>
   </si>
   <si>
-    <t>A010</t>
+    <t>A011</t>
   </si>
   <si>
     <t>获取游戏玩法数据</t>
@@ -382,7 +391,7 @@
     <t>{"GameID":"320"}</t>
   </si>
   <si>
-    <t>A011</t>
+    <t>A012</t>
   </si>
   <si>
     <t>获取游戏最新开盘期数</t>
@@ -391,7 +400,7 @@
     <t>/api/GetNewPeriod</t>
   </si>
   <si>
-    <t>A012</t>
+    <t>A013</t>
   </si>
   <si>
     <t>获取游戏赔率数据</t>
@@ -403,7 +412,7 @@
     <t>{"GameID":"198"}</t>
   </si>
   <si>
-    <t>A013</t>
+    <t>A014</t>
   </si>
   <si>
     <t>官方游戏下注</t>
@@ -415,7 +424,7 @@
     <t>{"PeriodId": "179621970", "OrderList":"", "GameId": "320"}</t>
   </si>
   <si>
-    <t>A014</t>
+    <t>A015</t>
   </si>
   <si>
     <t>前台相关</t>
@@ -430,7 +439,7 @@
     <t>{"username": "ttttt", "password":"8196658ecaeceb870d0ad3053dd579d2", "validateCode": ""}</t>
   </si>
   <si>
-    <t>A015</t>
+    <t>A016</t>
   </si>
   <si>
     <t>代理注册</t>
@@ -442,7 +451,7 @@
     <t>{"isAgent":true,"accountName":"ttt953","nickName":"tt","password":"aaaa1111","kickback":-1,"odds":-1,"fismsghigherups":false,"UserKickbacks":""}</t>
   </si>
   <si>
-    <t>A016</t>
+    <t>A017</t>
   </si>
   <si>
     <t>六合彩下注</t>
@@ -454,7 +463,7 @@
     <t>{"force":false,"gameId":578,"maxBack":9.0,"orderlist":[{"amount":10,"goal":"1349","id":1349,"name":"7","odds":43.61,"odds1":-1.0,"parentName":"特码","sId":457,"timestamp":1594448747}],"periodID":"43733064","selectBack":0.0}</t>
   </si>
   <si>
-    <t>A017</t>
+    <t>A018</t>
   </si>
   <si>
     <t>活动相关</t>
@@ -466,7 +475,7 @@
     <t>/api/GetActivityList</t>
   </si>
   <si>
-    <t>A018</t>
+    <t>A019</t>
   </si>
   <si>
     <t>查询是否有活动</t>
@@ -475,7 +484,7 @@
     <t>/api/HasActivity</t>
   </si>
   <si>
-    <t>A019</t>
+    <t>A020</t>
   </si>
   <si>
     <t>查询用户已参加活动</t>
@@ -487,7 +496,7 @@
     <t>{"EndTime":"2020-07-14 02:00:00","PageSize":20,"StartTime":"2020-07-13 02:00:00","PageIndex":1}</t>
   </si>
   <si>
-    <t>A020</t>
+    <t>A021</t>
   </si>
   <si>
     <t>后台相关</t>
@@ -502,7 +511,7 @@
     <t>{"password":"8196658ecaeceb870d0ad3053dd579d2","googlecode":"","username":"qazwsx2","validateCode":"","accountfid":""}</t>
   </si>
   <si>
-    <t>A021</t>
+    <t>A022</t>
   </si>
   <si>
     <t>/Account/AddAccount</t>
@@ -511,7 +520,7 @@
     <t>{"parentId":535658,"isAgent":true,"isBet":true,"isCommission":false,"agentType":2,"isVisitor":false,"hasContact":false,"accountName":"替换参数","nickName":"tt","password":"替换参数","status":1,"odds":-1,"hasUserContact":false,"FTransferAccountsType":0,"UseParentOdds":false,"IsTransferAccounts":0,"jsonlist":[],"homeView":"haocai","agentAddBankCardConditions":"","memberAddBankCardConditions":"","UserKickbacks":[]}</t>
   </si>
   <si>
-    <t>A022</t>
+    <t>A023</t>
   </si>
   <si>
     <t>参加活动</t>
@@ -523,7 +532,7 @@
     <t>{"ActityID":4330}</t>
   </si>
   <si>
-    <t>A023</t>
+    <t>A024</t>
   </si>
   <si>
     <t>添加活动</t>
@@ -535,7 +544,7 @@
     <t>/ActivesManage/AddActity</t>
   </si>
   <si>
-    <t>A024</t>
+    <t>A025</t>
   </si>
   <si>
     <t>领取活动奖励</t>
@@ -547,7 +556,7 @@
     <t>{"ActityID":320298}</t>
   </si>
   <si>
-    <t>A025</t>
+    <t>A026</t>
   </si>
   <si>
     <t>充值提现</t>
@@ -559,7 +568,7 @@
     <t>/api/PaymentIndex</t>
   </si>
   <si>
-    <t>A026</t>
+    <t>A027</t>
   </si>
   <si>
     <t>获取可用支付通道</t>
@@ -571,7 +580,7 @@
     <t>{"id":9,"isonline":-1}</t>
   </si>
   <si>
-    <t>A027</t>
+    <t>A028</t>
   </si>
   <si>
     <t>获取用户常用支付通道</t>
@@ -580,7 +589,7 @@
     <t>/api/GetRecentlyUsedPayment</t>
   </si>
   <si>
-    <t>A028</t>
+    <t>A029</t>
   </si>
   <si>
     <t>检查通道是否首次充值</t>
@@ -592,7 +601,7 @@
     <t>{"id":2,"isonline":1,"_":1596470495046}</t>
   </si>
   <si>
-    <t>A029</t>
+    <t>A030</t>
   </si>
   <si>
     <t>获取支付商优惠设置</t>
@@ -604,7 +613,7 @@
     <t>{"Type":2,"CashConfigId":1112,"_":1596475297051}</t>
   </si>
   <si>
-    <t>A030</t>
+    <t>A031</t>
   </si>
   <si>
     <t>检测充值金额</t>
@@ -616,7 +625,7 @@
     <t>{"Amount":-1}</t>
   </si>
   <si>
-    <t>A031</t>
+    <t>A032</t>
   </si>
   <si>
     <t>线上充值</t>
@@ -628,7 +637,7 @@
     <t>{"LoginSessionID":"5e6ebd2c856a5bf41a653758c334e48f","paymentId":1188,"amount":100,"code":"","FIsCode":false,"wayType":1,"choicePre":true}</t>
   </si>
   <si>
-    <t>A032</t>
+    <t>A033</t>
   </si>
   <si>
     <t>充值记录</t>
@@ -640,7 +649,7 @@
     <t>{"EndTime":"2020-08-08 02:00:00","OrderNum":"","PageSize":20,"StartTime":"2020-08-07 02:00:00","IsContainSub":false,"PageIndex":1,"QueryType":0,"FStatus":3,"AccountName":""}</t>
   </si>
   <si>
-    <t>A033</t>
+    <t>A034</t>
   </si>
   <si>
     <t>公司充值</t>
@@ -650,6 +659,36 @@
   </si>
   <si>
     <t>{"orderNumber":"45308102348429170002","amount":200,"userBankId":44,"CompanyCardId":133860,"date":"2020/08/10 19:49:21","way":"","realName":"Qq","place":"","bankId":133860,"choicePre":true,"CardNo":"15154512784","_":1597074569436}</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>获取提现基础数据</t>
+  </si>
+  <si>
+    <t>/api/GetEncashment</t>
+  </si>
+  <si>
+    <t>A036</t>
+  </si>
+  <si>
+    <t>获取出款稽核数据</t>
+  </si>
+  <si>
+    <t>/api/GetAuditData</t>
+  </si>
+  <si>
+    <t>A037</t>
+  </si>
+  <si>
+    <t>前台出款申请</t>
+  </si>
+  <si>
+    <t>/api/UpEncashmentApply</t>
+  </si>
+  <si>
+    <t>{"Amount":"100","CardID":134026,"Password":"200820e3227815ed1756a6b531e7e0d2"}</t>
   </si>
 </sst>
 </file>
@@ -658,8 +697,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -684,9 +723,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,44 +733,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,11 +747,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,6 +792,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -776,37 +807,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,6 +844,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -854,37 +893,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +1037,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,133 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,32 +1119,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1137,11 +1150,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,6 +1179,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1168,10 +1207,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,133 +1219,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1680,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1946,15 +1985,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" ht="33" customHeight="1" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1966,21 +2005,22 @@
         <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -1992,24 +2032,21 @@
         <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -2021,13 +2058,13 @@
         <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2035,7 +2072,7 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>59</v>
@@ -2056,47 +2093,47 @@
         <v>29</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -2105,24 +2142,27 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" ht="33" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>21</v>
@@ -2131,27 +2171,24 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" ht="33" spans="1:9">
       <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>21</v>
@@ -2160,52 +2197,55 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="5" t="s">
+    </row>
+    <row r="18" ht="49.5" spans="1:9">
+      <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="19" customHeight="1" spans="1:8">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2224,14 +2264,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" ht="19" customHeight="1" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2249,45 +2289,45 @@
       <c r="H20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" ht="33" spans="1:9">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" ht="33" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" ht="47" customHeight="1" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>21</v>
@@ -2296,27 +2336,24 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="I22" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" ht="47" customHeight="1" spans="1:9">
       <c r="A23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>21</v>
@@ -2325,27 +2362,27 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
@@ -2354,24 +2391,27 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>21</v>
@@ -2380,7 +2420,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>108</v>
@@ -2388,19 +2428,16 @@
       <c r="H25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>21</v>
@@ -2412,24 +2449,27 @@
         <v>14</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -2443,19 +2483,16 @@
       <c r="H27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
@@ -2467,18 +2504,21 @@
         <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>122</v>
@@ -2498,19 +2538,16 @@
       <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>12</v>
@@ -2522,82 +2559,82 @@
         <v>14</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" ht="33" spans="1:9">
-      <c r="A32" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:9">
       <c r="A33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
@@ -2609,42 +2646,152 @@
         <v>14</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="4" t="s">
+    </row>
+    <row r="34" ht="33" spans="1:9">
+      <c r="A34" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" ht="66" spans="1:9">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="H34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" ht="66" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>144</v>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2658,10 +2805,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
       <formula1>"HC,AG"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D38 D36:D37">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E2:E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E38 E2:E3 E36:E37">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>

--- a/LX_API_TEST/Data/Interface_info.xlsx
+++ b/LX_API_TEST/Data/Interface_info.xlsx
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="176">
   <si>
     <t>ID</t>
   </si>
@@ -689,6 +689,60 @@
   </si>
   <si>
     <t>{"Amount":"100","CardID":134026,"Password":"200820e3227815ed1756a6b531e7e0d2"}</t>
+  </si>
+  <si>
+    <t>A038</t>
+  </si>
+  <si>
+    <t>娱乐平台</t>
+  </si>
+  <si>
+    <t>获取Login值</t>
+  </si>
+  <si>
+    <t>{"ASP.NET_SessionId":"453kmaiyd0flctslrmyoan0d"}</t>
+  </si>
+  <si>
+    <t>A039</t>
+  </si>
+  <si>
+    <t>前台登录</t>
+  </si>
+  <si>
+    <t>{"username":"huiy07","password":"f09caad93c556216048595de602044b0","validateCode":9999,"sid":"453kmaiyd0flctslrmyoan0d"}</t>
+  </si>
+  <si>
+    <t>A040</t>
+  </si>
+  <si>
+    <t>六合彩首页</t>
+  </si>
+  <si>
+    <t>/Six/Index</t>
+  </si>
+  <si>
+    <t>{"ASP.NET_SessionId":"453kmaiyd0flctslrmyoan0d","DROCQ.ID":"403859","DROCQ.USERID": "huiy07","DROCQ.USERNAME":"huiy07","DROCQ.GRADEID":"975","DROCQ.GRADENAME": "%e4%bc%9a%e5%91%98","DROCQ.COMPANYID":"38171","DROCQ.ROLE":"User","DROCQ.LOGINSTATUS":"1","DROCQ.AUTHORITYID":"403859","DROCQ.AUTHORITYGRADEID":"975","DROCQ.PARENTID":"403849","DROCQ.SUPACCOUNTS":"38171%2c403845%2c403846%2c403847%2c403849","DROCQ.ISAPI": "False","DROCQ.ISGUEST": "False","DROCQ.FFORCESCHANGEPWD":"False"}</t>
+  </si>
+  <si>
+    <t>{"gameid":"30"}</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>获取玩法赔率</t>
+  </si>
+  <si>
+    <t>/Shared/GetOdd</t>
+  </si>
+  <si>
+    <t>A042</t>
+  </si>
+  <si>
+    <t>获取六合彩玩法</t>
+  </si>
+  <si>
+    <t>/WS/GetBallData</t>
   </si>
 </sst>
 </file>
@@ -697,9 +751,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -723,9 +777,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,9 +878,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,39 +899,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,63 +914,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,19 +947,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,43 +1049,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,115 +1121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,6 +1156,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1113,15 +1191,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,17 +1219,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,19 +1248,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1207,10 +1261,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1219,133 +1273,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1719,10 +1773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2794,21 +2848,152 @@
         <v>157</v>
       </c>
     </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" ht="33" spans="1:9">
+      <c r="A40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" ht="45" customHeight="1" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>"GET,POST"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
+      <formula1>"HC,AG"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1">
-      <formula1>"HC,AG"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>"GET,POST"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D38 D36:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D38 D39 D40 D41 D42 D43 D36:D37">
       <formula1>"POST,GET"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E38 E2:E3 E36:E37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E6 E7 E8 E9 E10 E11 E12 E13 E14 E15 E16 E17 E18 E19 E20 E21 E22 E23 E24 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E38 E39 E40 E41 E42 E43 E2:E3 E36:E37">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
